--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8458B19-D626-4B2F-930D-1B79F0D6ADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="8472"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -491,44 +492,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:RepayType
-1.期款
-2.部分償還
-3.結案
-4.帳管費
-5.火險費
-6.契變手續費
-7.法務費
-9.其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4451建檔交易產生者，此欄位由額度檔抓取
-CdCode:BankCdAppl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4451建檔交易產生者，此欄位由額度檔抓取
-CdCode:PostDepCode
-G: 劃撥 P: 存簿</t>
-  </si>
-  <si>
-    <t>L4451建檔交易產生者，此欄位由額度檔抓取
-CdCode:RelationCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:Sex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AmlCheckItem
-0.非可疑名單/已完成名單確認
-1.需審查/確認
-2.為凍結名單/未確定名單</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>暫收款抵繳金額</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -705,13 +668,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>空白:未回, 00:扣款成功, &gt;00 :扣款失敗
-失敗原因 : ref. CdCode ProcCode 處理說明
- ACH  : 002 + ReturnCode(2)
- 郵局 : 003 + ReturnCode(2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EntryDate = ,AND CustNo = ,AND FacmNo = ,AND RepayType = ,AND PayIntDate =</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -733,13 +689,62 @@
   </si>
   <si>
     <t>EntryDate,CustNo,FacmNo,RepayType,PayIntDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RepayType
+1:期款
+2:部分償還
+3:結案
+4:帳管費
+5:火險費
+6:契變手續費
+7:法務費
+9:其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4451建檔交易產生者，此欄位由額度檔抓取
+CdCode.BankCdAppl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4451建檔交易產生者，此欄位由額度檔抓取
+CdCode.PostDepCode
+G:劃撥
+P:存簿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4451建檔交易產生者，此欄位由額度檔抓取
+CdCode.RelationCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.Sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白:未回
+00:扣款成功
+&gt;00:扣款失敗
+失敗原因 ref. CdCode.ProcCode 處理說明
+ ACH ：002 + ReturnCode(2)
+ 郵局：003 + ReturnCode(2)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1106,8 +1111,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1198,6 +1203,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1233,6 +1255,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1408,11 +1447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1460,7 +1499,7 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1608,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1635,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>118</v>
@@ -1673,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>22</v>
@@ -1685,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1756,7 +1795,7 @@
         <v>102</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>28</v>
@@ -1828,7 +1867,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="48.6">
+    <row r="24" spans="1:7" ht="64.8">
       <c r="A24" s="26">
         <v>16</v>
       </c>
@@ -1845,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.6">
@@ -1853,10 +1892,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>106</v>
@@ -1865,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.4">
@@ -1885,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1965,7 +2004,7 @@
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="22" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2007,7 +2046,7 @@
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2048,7 +2087,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="50" customFormat="1">
@@ -2056,10 +2095,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>29</v>
@@ -2069,7 +2108,7 @@
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="49" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="50" customFormat="1">
@@ -2077,10 +2116,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D36" s="47" t="s">
         <v>29</v>
@@ -2090,7 +2129,7 @@
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="49" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="31" customFormat="1" ht="64.8">
@@ -2098,7 +2137,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>60</v>
@@ -2111,18 +2150,18 @@
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="31" customFormat="1" ht="64.8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="31" customFormat="1" ht="113.4">
       <c r="A38" s="26">
         <v>30</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>59</v>
@@ -2132,7 +2171,7 @@
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="22" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="22.2" customHeight="1">
@@ -2257,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -2330,10 +2369,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>114</v>
@@ -2344,7 +2383,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2352,7 +2391,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2373,10 +2412,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>109</v>
@@ -2384,10 +2423,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>109</v>
@@ -2406,10 +2445,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>114</v>
@@ -2423,7 +2462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2443,80 +2482,80 @@
   <sheetData>
     <row r="1" spans="2:6" s="43" customFormat="1">
       <c r="B1" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C2" s="42"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>139</v>
-      </c>
       <c r="E3" s="41" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="E5" s="41" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="C7" s="41" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" s="41" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
